--- a/new_dex/Tabel/User.xlsx
+++ b/new_dex/Tabel/User.xlsx
@@ -9,17 +9,78 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Регистрация" sheetId="1" r:id="rId1"/>
+    <sheet name="Личный кабинет пользователей" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Банковская Карта</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1@j.ru</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>5@r.ru</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10@r.ru</t>
+  </si>
+  <si>
+    <t>1@r.ru</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2@a.ru</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>15@f.ru</t>
+  </si>
+  <si>
+    <t>1@e.ru</t>
+  </si>
+  <si>
+    <t>2@r.ru</t>
+  </si>
   <si>
     <t>Логин</t>
   </si>
@@ -27,9 +88,6 @@
     <t>Пароль</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>5@gmail.com</t>
   </si>
   <si>
@@ -51,10 +109,22 @@
     <t>99@g.ru</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1@g.ru</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1000@k.ru</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>11@d.ru</t>
+  </si>
+  <si>
+    <t>2@j.ru</t>
   </si>
 </sst>
 </file>
@@ -370,9 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -380,65 +450,265 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/new_dex/Tabel/User.xlsx
+++ b/new_dex/Tabel/User.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Имя</t>
   </si>
@@ -82,6 +82,12 @@
     <t>2@r.ru</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12345@gmail.com</t>
+  </si>
+  <si>
     <t>Логин</t>
   </si>
   <si>
@@ -118,13 +124,19 @@
     <t>1000@k.ru</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>11@d.ru</t>
   </si>
   <si>
     <t>2@j.ru</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>kf12916@gmail.com</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -450,10 +462,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -464,40 +476,40 @@
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -508,29 +520,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +553,29 @@
         <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,6 +745,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
